--- a/output.xlsx
+++ b/output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t xml:space="preserve">Transection ID</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">Arvind Nath</t>
   </si>
   <si>
+    <t xml:space="preserve">40334233-18a9-4ca6-96a8-001718ec55e3</t>
+  </si>
+  <si>
     <t xml:space="preserve">(amoxicillin) amoxicillin 500 mg capsule</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t xml:space="preserve">Windsor Charles</t>
   </si>
   <si>
+    <t xml:space="preserve">54eb5c05-efe3-4feb-b599-314ecc93cfb9</t>
+  </si>
+  <si>
     <t xml:space="preserve">(bromocriptine) bromocriptine 5 mg capsule</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t xml:space="preserve">Wilbur Smith</t>
   </si>
   <si>
+    <t xml:space="preserve">2aa9cdef-0d43-444f-95eb-e4a4c77ca455</t>
+  </si>
+  <si>
     <t xml:space="preserve">(clotrimazole) clotrimazole 1% lotion</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
     <t xml:space="preserve">Jerry RAC004</t>
   </si>
   <si>
+    <t xml:space="preserve">063e6efa-a193-4d9e-880a-914d509de3c2</t>
+  </si>
+  <si>
     <t xml:space="preserve">(doxazosin) doxazosin 4 mg tablet</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t xml:space="preserve">Ita Rooney</t>
   </si>
   <si>
+    <t xml:space="preserve">7c00e757-ce25-4972-8ad0-9cc6c7c814e2</t>
+  </si>
+  <si>
     <t xml:space="preserve">(buprenorphine) Norspan 20 microgram/hour patch</t>
   </si>
   <si>
@@ -110,39 +125,60 @@
     <t xml:space="preserve">Robyn Dhar</t>
   </si>
   <si>
+    <t xml:space="preserve">4f7b15a8-f784-4f6c-8d60-726117dd1af9</t>
+  </si>
+  <si>
     <t xml:space="preserve">(everolimus) everolimus 10 mg tablet</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Jones</t>
   </si>
   <si>
+    <t xml:space="preserve">b47d14be-7c70-4376-944d-1403e210f766</t>
+  </si>
+  <si>
     <t xml:space="preserve">(fluorouracil) fluorouracil 5% cream</t>
   </si>
   <si>
     <t xml:space="preserve">Ted Bryan</t>
   </si>
   <si>
+    <t xml:space="preserve">9952a973-8da0-41fc-ac0f-6b93ceb22dba</t>
+  </si>
+  <si>
     <t xml:space="preserve">(oxycodone) Endone 5 mg tablet</t>
   </si>
   <si>
+    <t xml:space="preserve">fe0be095-415b-4e6b-a0d2-76cccd8b3002</t>
+  </si>
+  <si>
     <t xml:space="preserve">(wool fat) wool fat 1 g/g ointment</t>
   </si>
   <si>
     <t xml:space="preserve">Michael ILU</t>
   </si>
   <si>
+    <t xml:space="preserve">f7f38e97-83e8-49d4-ba47-fb184baa8675</t>
+  </si>
+  <si>
     <t xml:space="preserve">(gentamicin) gentamicin 40 mg/mL injection, ampoule</t>
   </si>
   <si>
     <t xml:space="preserve">Pamela Butler</t>
   </si>
   <si>
+    <t xml:space="preserve">076bdc53-820c-4e06-b7de-bb14bdfba61b</t>
+  </si>
+  <si>
     <t xml:space="preserve">(lidocaine) lidocaine hydrochloride 4% cream</t>
   </si>
   <si>
     <t xml:space="preserve">Perry Grant</t>
   </si>
   <si>
+    <t xml:space="preserve">108f9bc3-ef0d-4936-bcf7-d67034d0531b</t>
+  </si>
+  <si>
     <t xml:space="preserve">(methadone) methadone hydrochloride 500 microgram/mL oral liquid</t>
   </si>
   <si>
@@ -152,10 +188,16 @@
     <t xml:space="preserve">David Springer</t>
   </si>
   <si>
+    <t xml:space="preserve">4ff2a345-b25f-4bdb-843a-3193ef9f70b5</t>
+  </si>
+  <si>
     <t xml:space="preserve">(prilocaine) prilocaine hydrochloride 1% (50 mg/5 mL) injection, ampoule</t>
   </si>
   <si>
     <t xml:space="preserve">Loc-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251f26cf-275f-417b-ac18-be0e8267078e</t>
   </si>
   <si>
     <t xml:space="preserve">(amoxicillin) Yomax 500 mg capsule</t>
@@ -300,10 +342,10 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -368,18 +410,20 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="n">
@@ -389,18 +433,20 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="n">
@@ -410,18 +456,20 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="n">
@@ -431,18 +479,20 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="n">
@@ -452,18 +502,20 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3" t="n">
@@ -473,18 +525,20 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="n">
@@ -494,18 +548,20 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="3" t="n">
@@ -515,18 +571,20 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3" t="n">
@@ -536,18 +594,20 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="3" t="n">
@@ -557,9 +617,11 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -568,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3" t="n">
@@ -578,18 +640,20 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="n">
@@ -599,18 +663,20 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="3" t="n">
@@ -620,18 +686,20 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="3" t="n">
@@ -641,18 +709,20 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="3" t="n">
@@ -692,7 +762,7 @@
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.14"/>
@@ -702,30 +772,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -341,11 +341,11 @@
   </sheetPr>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -758,11 +758,11 @@
   </sheetPr>
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.14"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
-    <t xml:space="preserve">Transection ID</t>
+    <t xml:space="preserve">Transaction ID</t>
   </si>
   <si>
     <t xml:space="preserve">Drug</t>
@@ -341,11 +341,11 @@
   </sheetPr>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -762,7 +762,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.14"/>
